--- a/data/cyber_crimes_overall.xlsx
+++ b/data/cyber_crimes_overall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\NSS\Capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D1F1BA-5DF6-46F5-9684-D1AB5945CCA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC9FC59-3ADD-4297-B9CA-3C4CCB1CBA01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="678" activeTab="3" xr2:uid="{83D2063E-A951-4D1F-B1AA-BA3437BDD47B}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="678" firstSheet="1" activeTab="5" xr2:uid="{83D2063E-A951-4D1F-B1AA-BA3437BDD47B}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="7" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="countries" sheetId="3" r:id="rId3"/>
     <sheet name="descriptors" sheetId="5" r:id="rId4"/>
     <sheet name="type" sheetId="9" r:id="rId5"/>
-    <sheet name="2020 victim per state" sheetId="12" r:id="rId6"/>
-    <sheet name="2020 perp per state" sheetId="13" r:id="rId7"/>
-    <sheet name="age Top 4" sheetId="16" r:id="rId8"/>
-    <sheet name="Top 4" sheetId="14" r:id="rId9"/>
+    <sheet name="Success" sheetId="17" r:id="rId6"/>
+    <sheet name="2020 victim per state" sheetId="12" r:id="rId7"/>
+    <sheet name="2020 perp per state" sheetId="13" r:id="rId8"/>
+    <sheet name="age Top 4" sheetId="16" r:id="rId9"/>
+    <sheet name="Top 4" sheetId="14" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2020 perp per state'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2020 perp per state'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">age!$A$1:$D$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="250">
   <si>
     <t>Age Range</t>
   </si>
@@ -970,6 +971,63 @@
   </si>
   <si>
     <t>avg loss per victim</t>
+  </si>
+  <si>
+    <t>amout</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>descriptor</t>
+  </si>
+  <si>
+    <t>bitcoin</t>
+  </si>
+  <si>
+    <t>St. Louis</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>wire transfer</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Knoxville</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Fort Lauderdale</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>social media</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1041,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="\$#,##0"/>
     <numFmt numFmtId="167" formatCode="\$0"/>
-    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1082,7 +1140,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1332,9 +1390,10 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1342,18 +1401,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{D2BB87AF-046A-41B9-8F9A-140BE1052D42}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{494C4808-31BD-4A85-A9EE-8140A68FCA8F}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1364,2026 +1412,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>type!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Victim Count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>type!$A$2:$A$202</c:f>
-              <c:strCache>
-                <c:ptCount val="201"/>
-                <c:pt idx="0">
-                  <c:v>Advanced Fee</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Business Email Compromise</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Charity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Civil Matter</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Confidence Fraud/Romance</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Corporate Data Breach</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Credit Card Fraud</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Crimes Against Children</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Denial of Service/TDoS</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Employment</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Extortion</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Gambling</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Government Impersonation</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Hacktivist</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Harassment/Threats of Violence</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Health Care Related</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Identity Theft</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Investment</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>IPR/Copyright and Counterfeit</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Lottery/Sweepstakes/Inheritance</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Malware/Scareware/Virus</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Misrepresentation</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Non-Payment/Non-Delivery</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Other</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Overpayment</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Personal Data Breach</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Phishing/Vishing/Smishing/Pharming</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Ransomware</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Real Estate/Rental</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Re-Shipping</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Spoofing</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Tech Support</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Terrorism</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Advanced Fee</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Business Email Compromise</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Charity</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Civil Matter</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Confidence Fraud/Romance</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Corporate Data Breach</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Credit Card Fraud</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Crimes Against Children</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Denial of Service/TDoS</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Employment</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Extortion</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>Gambling</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>Government Impersonation</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>Hacktivist</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>Harassment/Threats of Violence</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>Health Care Related</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>Identity Theft</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Investment</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>IPR/Copyright and Counterfeit</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>Lottery/Sweepstakes/Inheritance</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>Malware/Scareware/Virus</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>Misrepresentation</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>Non-Payment/Non-Delivery</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>Other</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>Overpayment</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>Personal Data Breach</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>Phishing/Vishing/Smishing/Pharming</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>Ransomware</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>Real Estate/Rental</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>Re-Shipping</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>Spoofing</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>Tech Support</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>Terrorism</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>Advanced Fee</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>Business Email Compromise</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>Charity</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>Civil Matter</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>Confidence Fraud/Romance</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>Corporate Data Breach</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>Credit Card Fraud</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>Crimes Against Children</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>Denial of Service/TDoS</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>Employment</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>Extortion</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>Gambling</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>Government Impersonation</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>Hacktivist</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>Harassment/Threats of Violence</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>Health Care Related</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>Identity Theft</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>Investment</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>IPR/Copyright and Counterfeit</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>Lottery/Sweepstakes/Inheritance</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>Malware/Scareware/Virus</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>Misrepresentation</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>Non-Payment/Non-Delivery</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>Other</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>Overpayment</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>Personal Data Breach</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>Phishing/Vishing/Smishing/Pharming</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>Ransomware</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>Real Estate/Rental</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>Re-Shipping</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>Spoofing</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>Tech Support</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>Terrorism</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>Advanced Fee</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>Business Email Compromise</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>Charity</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>Civil Matter</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>Confidence Fraud/Romance</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>Corporate Data Breach</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>Credit Card Fraud</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>Crimes Against Children</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>Denial of Service/TDoS</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>Employment</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>Extortion</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>Gambling</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>Government Impersonation</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>Hacktivist</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>Harassment/Threats of Violence</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>Health Care Related</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>Identity Theft</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>Investment</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>IPR/Copyright and Counterfeit</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>Lottery/Sweepstakes</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>Malware/Scareware/Virus</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>Misrepresentation</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>No Lead Value</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>Non-Payment/Non-Delivery</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>Other</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>Overpayment</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>Personal Data Breach</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>Phishing/Vishing/Smishing/Pharming</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>Ransomware</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>Real Estate/Rental</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>Re-shipping</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>Tech Support</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>Terrorism</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>419/Overpayment</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>Advanced Fee</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>Business Email Compromise</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>Charity</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>Civil Matter</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>Confidence Fraud/Romance</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>Corporate Data Breach</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>Credit Card Fraud</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>Crimes Against Children</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>Denial of Service</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>Employment</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>Extortion</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>Gambling</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>Government Impersonation</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>Hacktivist</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>Harassment/Threats of Violence</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>Health Care Related</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>Identity Theft</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>Investment</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>IPR/Copyright and Counterfeit</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>Lottery/Sweepstakes</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>Malware/Scareware</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>Misrepresentation</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>No Lead Value</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>Non-Payment/Non-Delivery</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>Other</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>Personal Data Breach</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>Phishing/Vishing/Smishing/Pharming</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>Ransomware</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>Real Estate/Rental</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>Re-shipping</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>Tech Support</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>Terrorism</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>Virus</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>419/Overpayment</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>Advanced Fee</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>Auction</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>Business Email Compromise</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>Charity</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>Civil Matter</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>Confidence Fraud/Romance</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>Corporate Data Breach</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>Credit Card Fraud</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>Crimes Against Children</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>Criminal Forums</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>Denial of Service</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>Employment</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>Extortion</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>Gambling</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>Government Impersonation</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>Hacktivist</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>Harassment/Threats of Violence</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>Health Care Related</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>Identity Theft</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>Investment</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>IPR/Copyright and Counterfeit</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>Lottery/Sweepstakes</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>Malware/Scareware</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>Misrepresentation</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>No Lead Value</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>Non-Payment/Non-Delivery</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>Other</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>Personal Data Breach</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>Phishing/Vishing/Smishing/Pharming</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>Ransomware</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>Real Estate/Rental</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>Re-shipping</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>Terrorism</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>Virus</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>type!$B$2:$B$202</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="201"/>
-                <c:pt idx="0">
-                  <c:v>13020</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19369</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>659</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23751</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2794</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17614</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3202</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16879</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>76741</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12827</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20604</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1383</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43330</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8788</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4213</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8501</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1423</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24276</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>108869</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10372</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10988</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45330</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>241342</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2474</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13638</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>883</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>28218</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15421</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>14607</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>23775</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>407</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>908</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>19473</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1795</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>14378</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1312</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1353</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>14493</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43101</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>13873</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>15502</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>16053</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3892</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>7767</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2373</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5975</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>61832</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>10842</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>15395</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>38218</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>114702</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>11677</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>929</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>25789</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>13633</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>16362</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>20373</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>768</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>18493</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2480</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>15210</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1394</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1799</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>14979</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>51146</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>10978</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>18415</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>16128</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3693</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2249</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>7146</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2811</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5959</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>65116</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>10826</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>15512</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>50642</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>26379</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1493</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>11300</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>907</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>15569</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>14408</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>16368</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>15690</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>436</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>15372</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>3785</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>15220</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1201</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>15784</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>14938</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>9149</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>16194</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>17636</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>3089</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2644</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>3012</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>3089</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>5437</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>20241</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>84079</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>14023</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>23135</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>30904</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>25344</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1783</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>9645</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1025</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>10949</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>25716</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>15075</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>12005</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>437</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1070</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>14546</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>3403</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>15895</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>1230</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>979</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>17387</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>17146</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>12344</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>16385</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>16878</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>2197</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>2572</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>4231</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>2783</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>5436</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>13794</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>81029</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>12619</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>27573</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>19465</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>2673</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>12574</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>893</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>10850</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>1498</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>30855</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>16445</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>21510</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>7837</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>1148</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>12509</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>2499</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>17172</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>1348</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>1020</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>18758</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>17804</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>11832</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>14812</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>465</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>21949</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>1806</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>1931</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>5324</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>3294</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>5458</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>12187</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>67375</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>19963</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>19632</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>16594</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>2453</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>11562</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>1073</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>971</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-043B-4520-B266-1FAA45EA7065}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="316148784"/>
-        <c:axId val="316143792"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="316148784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="316143792"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="316143792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="316148784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3562,47 +1590,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603D975F-D852-4A64-8D4F-2467E03F2C2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4057,6 +2044,2864 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D09582-0870-4074-A122-F0CE63C18E4B}">
+  <dimension ref="A1:F143"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="86">
+        <v>1497</v>
+      </c>
+      <c r="C2" s="60">
+        <v>19531058</v>
+      </c>
+      <c r="D2" s="83">
+        <v>778</v>
+      </c>
+      <c r="E2" s="61">
+        <v>8991086</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="86">
+        <v>2924</v>
+      </c>
+      <c r="C3" s="60">
+        <v>219121752</v>
+      </c>
+      <c r="D3" s="83">
+        <v>428</v>
+      </c>
+      <c r="E3" s="61">
+        <v>31866447</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="86">
+        <v>0</v>
+      </c>
+      <c r="C4" s="60">
+        <v>0</v>
+      </c>
+      <c r="D4" s="83">
+        <v>0</v>
+      </c>
+      <c r="E4" s="61">
+        <v>0</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="86">
+        <v>137</v>
+      </c>
+      <c r="C5" s="60">
+        <v>11916688</v>
+      </c>
+      <c r="D5" s="83">
+        <v>107</v>
+      </c>
+      <c r="E5" s="61">
+        <v>6536458</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="86">
+        <v>3110</v>
+      </c>
+      <c r="C6" s="60">
+        <v>120492182</v>
+      </c>
+      <c r="D6" s="83">
+        <v>1384</v>
+      </c>
+      <c r="E6" s="61">
+        <v>69686021</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="86">
+        <v>367</v>
+      </c>
+      <c r="C7" s="60">
+        <v>26713249</v>
+      </c>
+      <c r="D7" s="83">
+        <v>96</v>
+      </c>
+      <c r="E7" s="61">
+        <v>5226532</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="86">
+        <v>2637</v>
+      </c>
+      <c r="C8" s="60">
+        <v>15484731</v>
+      </c>
+      <c r="D8" s="83">
+        <v>1128</v>
+      </c>
+      <c r="E8" s="61">
+        <v>9640764</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="86">
+        <v>408</v>
+      </c>
+      <c r="C9" s="60">
+        <v>434348</v>
+      </c>
+      <c r="D9" s="83">
+        <v>85</v>
+      </c>
+      <c r="E9" s="61">
+        <v>11989</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="86">
+        <v>0</v>
+      </c>
+      <c r="C10" s="60">
+        <v>0</v>
+      </c>
+      <c r="D10" s="83">
+        <v>0</v>
+      </c>
+      <c r="E10" s="61">
+        <v>0</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="86">
+        <v>205</v>
+      </c>
+      <c r="C11" s="60">
+        <v>83304</v>
+      </c>
+      <c r="D11" s="83">
+        <v>83</v>
+      </c>
+      <c r="E11" s="61">
+        <v>2458</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="86">
+        <v>2355</v>
+      </c>
+      <c r="C12" s="60">
+        <v>12826945</v>
+      </c>
+      <c r="D12" s="83">
+        <v>1067</v>
+      </c>
+      <c r="E12" s="61">
+        <v>7805888</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="86">
+        <v>11089</v>
+      </c>
+      <c r="C13" s="60">
+        <v>16283934</v>
+      </c>
+      <c r="D13" s="83">
+        <v>1154</v>
+      </c>
+      <c r="E13" s="61">
+        <v>3408726</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="86">
+        <v>51</v>
+      </c>
+      <c r="C14" s="60">
+        <v>335167</v>
+      </c>
+      <c r="D14" s="83">
+        <v>18</v>
+      </c>
+      <c r="E14" s="61">
+        <v>677</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="86">
+        <v>1439</v>
+      </c>
+      <c r="C15" s="60">
+        <v>28344200</v>
+      </c>
+      <c r="D15" s="83">
+        <v>296</v>
+      </c>
+      <c r="E15" s="61">
+        <v>3835156</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="86">
+        <v>0</v>
+      </c>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
+      <c r="D16" s="83">
+        <v>0</v>
+      </c>
+      <c r="E16" s="61">
+        <v>0</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="86">
+        <v>2923</v>
+      </c>
+      <c r="C17" s="60">
+        <v>1182816</v>
+      </c>
+      <c r="D17" s="83">
+        <v>1291</v>
+      </c>
+      <c r="E17" s="61">
+        <v>849931</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="86">
+        <v>153</v>
+      </c>
+      <c r="C18" s="60">
+        <v>2161635</v>
+      </c>
+      <c r="D18" s="83">
+        <v>82</v>
+      </c>
+      <c r="E18" s="61">
+        <v>1970201</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="86">
+        <v>501</v>
+      </c>
+      <c r="C19" s="60">
+        <v>1669155</v>
+      </c>
+      <c r="D19" s="83">
+        <v>226</v>
+      </c>
+      <c r="E19" s="61">
+        <v>1560816</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="86">
+        <v>3370</v>
+      </c>
+      <c r="C20" s="60">
+        <v>23011137</v>
+      </c>
+      <c r="D20" s="83">
+        <v>1112</v>
+      </c>
+      <c r="E20" s="61">
+        <v>9552167</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="86">
+        <v>1026</v>
+      </c>
+      <c r="C21" s="60">
+        <v>65674226</v>
+      </c>
+      <c r="D21" s="83">
+        <v>762</v>
+      </c>
+      <c r="E21" s="61">
+        <v>36608176</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" s="86">
+        <v>725</v>
+      </c>
+      <c r="C22" s="60">
+        <v>13169635</v>
+      </c>
+      <c r="D22" s="83">
+        <v>225</v>
+      </c>
+      <c r="E22" s="61">
+        <v>6481705</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="86">
+        <v>185</v>
+      </c>
+      <c r="C23" s="60">
+        <v>1645813</v>
+      </c>
+      <c r="D23" s="83">
+        <v>73</v>
+      </c>
+      <c r="E23" s="61">
+        <v>43863</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="86">
+        <v>0</v>
+      </c>
+      <c r="C24" s="60">
+        <v>0</v>
+      </c>
+      <c r="D24" s="83">
+        <v>0</v>
+      </c>
+      <c r="E24" s="61">
+        <v>0</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="86">
+        <v>5692</v>
+      </c>
+      <c r="C25" s="60">
+        <v>0</v>
+      </c>
+      <c r="D25" s="83">
+        <v>3293</v>
+      </c>
+      <c r="E25" s="61">
+        <v>0</v>
+      </c>
+      <c r="F25" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26" s="86">
+        <v>13151</v>
+      </c>
+      <c r="C26" s="60">
+        <v>26912115</v>
+      </c>
+      <c r="D26" s="83">
+        <v>6358</v>
+      </c>
+      <c r="E26" s="61">
+        <v>19874738</v>
+      </c>
+      <c r="F26" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="86">
+        <v>1147</v>
+      </c>
+      <c r="C27" s="60">
+        <v>12314110</v>
+      </c>
+      <c r="D27" s="83">
+        <v>1607</v>
+      </c>
+      <c r="E27" s="61">
+        <v>6679784</v>
+      </c>
+      <c r="F27" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="86">
+        <v>1532</v>
+      </c>
+      <c r="C28" s="60">
+        <v>8602104</v>
+      </c>
+      <c r="D28" s="83">
+        <v>654</v>
+      </c>
+      <c r="E28" s="61">
+        <v>3296636</v>
+      </c>
+      <c r="F28" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="86">
+        <v>6372</v>
+      </c>
+      <c r="C29" s="60">
+        <v>23133897</v>
+      </c>
+      <c r="D29" s="83">
+        <v>2480</v>
+      </c>
+      <c r="E29" s="61">
+        <v>8417839</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="86">
+        <v>3302</v>
+      </c>
+      <c r="C30" s="60">
+        <v>8864419</v>
+      </c>
+      <c r="D30" s="83">
+        <v>774</v>
+      </c>
+      <c r="E30" s="61">
+        <v>2366193</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="86">
+        <v>323</v>
+      </c>
+      <c r="C31" s="60">
+        <v>1123833</v>
+      </c>
+      <c r="D31" s="83">
+        <v>23</v>
+      </c>
+      <c r="E31" s="61">
+        <v>3364</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="86">
+        <v>125</v>
+      </c>
+      <c r="C32" s="60">
+        <v>828544</v>
+      </c>
+      <c r="D32" s="83">
+        <v>86</v>
+      </c>
+      <c r="E32" s="61">
+        <v>459094</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="86">
+        <v>2493</v>
+      </c>
+      <c r="C33" s="60">
+        <v>34381477</v>
+      </c>
+      <c r="D33" s="83">
+        <v>1017</v>
+      </c>
+      <c r="E33" s="61">
+        <v>15458352</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" s="86">
+        <v>3204</v>
+      </c>
+      <c r="C34" s="60">
+        <v>33552417</v>
+      </c>
+      <c r="D34" s="83">
+        <v>972</v>
+      </c>
+      <c r="E34" s="61">
+        <v>13355303</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="86">
+        <v>2164</v>
+      </c>
+      <c r="C35" s="60">
+        <v>25355911</v>
+      </c>
+      <c r="D35" s="83">
+        <v>967</v>
+      </c>
+      <c r="E35" s="61">
+        <v>13821124</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="86">
+        <v>0</v>
+      </c>
+      <c r="C36" s="60">
+        <v>0</v>
+      </c>
+      <c r="D36" s="83">
+        <v>0</v>
+      </c>
+      <c r="E36" s="61">
+        <v>0</v>
+      </c>
+      <c r="F36" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="59"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="61"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="61"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="87">
+        <v>930</v>
+      </c>
+      <c r="C39" s="63">
+        <v>3296149</v>
+      </c>
+      <c r="D39" s="87">
+        <v>510</v>
+      </c>
+      <c r="E39" s="63">
+        <v>3118451</v>
+      </c>
+      <c r="F39" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" s="87">
+        <v>1381</v>
+      </c>
+      <c r="C40" s="63">
+        <v>115001364</v>
+      </c>
+      <c r="D40" s="87">
+        <v>269</v>
+      </c>
+      <c r="E40" s="63">
+        <v>21257260</v>
+      </c>
+      <c r="F40" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="87">
+        <v>0</v>
+      </c>
+      <c r="C41" s="63">
+        <v>0</v>
+      </c>
+      <c r="D41" s="87">
+        <v>0</v>
+      </c>
+      <c r="E41" s="63">
+        <v>0</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="87">
+        <v>105</v>
+      </c>
+      <c r="C42" s="63">
+        <v>781952</v>
+      </c>
+      <c r="D42" s="87">
+        <v>121</v>
+      </c>
+      <c r="E42" s="63">
+        <v>2111545</v>
+      </c>
+      <c r="F42" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="87">
+        <v>1603</v>
+      </c>
+      <c r="C43" s="63">
+        <v>40173934</v>
+      </c>
+      <c r="D43" s="87">
+        <v>678</v>
+      </c>
+      <c r="E43" s="63">
+        <v>29426282</v>
+      </c>
+      <c r="F43" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="87">
+        <v>189</v>
+      </c>
+      <c r="C44" s="63">
+        <v>8310707</v>
+      </c>
+      <c r="D44" s="87">
+        <v>58</v>
+      </c>
+      <c r="E44" s="63">
+        <v>4673897</v>
+      </c>
+      <c r="F44" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="87">
+        <v>1650</v>
+      </c>
+      <c r="C45" s="63">
+        <v>7212126</v>
+      </c>
+      <c r="D45" s="87">
+        <v>720</v>
+      </c>
+      <c r="E45" s="63">
+        <v>2435570</v>
+      </c>
+      <c r="F45" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="87">
+        <v>193</v>
+      </c>
+      <c r="C46" s="63">
+        <v>15007</v>
+      </c>
+      <c r="D46" s="87">
+        <v>33</v>
+      </c>
+      <c r="E46" s="63">
+        <v>10627</v>
+      </c>
+      <c r="F46" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="87">
+        <v>0</v>
+      </c>
+      <c r="C47" s="63">
+        <v>0</v>
+      </c>
+      <c r="D47" s="87">
+        <v>0</v>
+      </c>
+      <c r="E47" s="63">
+        <v>0</v>
+      </c>
+      <c r="F47" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" s="87">
+        <v>159</v>
+      </c>
+      <c r="C48" s="63">
+        <v>6454</v>
+      </c>
+      <c r="D48" s="87">
+        <v>48</v>
+      </c>
+      <c r="E48" s="63">
+        <v>830</v>
+      </c>
+      <c r="F48" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="87">
+        <v>1508</v>
+      </c>
+      <c r="C49" s="63">
+        <v>6457617</v>
+      </c>
+      <c r="D49" s="87">
+        <v>623</v>
+      </c>
+      <c r="E49" s="63">
+        <v>4646009</v>
+      </c>
+      <c r="F49" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="87">
+        <v>5079</v>
+      </c>
+      <c r="C50" s="63">
+        <v>4016115</v>
+      </c>
+      <c r="D50" s="87">
+        <v>527</v>
+      </c>
+      <c r="E50" s="63">
+        <v>2592687</v>
+      </c>
+      <c r="F50" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="87">
+        <v>20</v>
+      </c>
+      <c r="C51" s="63">
+        <v>225173</v>
+      </c>
+      <c r="D51" s="87">
+        <v>8</v>
+      </c>
+      <c r="E51" s="63">
+        <v>203600</v>
+      </c>
+      <c r="F51" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="87">
+        <v>963</v>
+      </c>
+      <c r="C52" s="63">
+        <v>5379106</v>
+      </c>
+      <c r="D52" s="87">
+        <v>184</v>
+      </c>
+      <c r="E52" s="63">
+        <v>1522885</v>
+      </c>
+      <c r="F52" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="87">
+        <v>0</v>
+      </c>
+      <c r="C53" s="63">
+        <v>0</v>
+      </c>
+      <c r="D53" s="87">
+        <v>0</v>
+      </c>
+      <c r="E53" s="63">
+        <v>0</v>
+      </c>
+      <c r="F53" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="87">
+        <v>1566</v>
+      </c>
+      <c r="C54" s="63">
+        <v>308820</v>
+      </c>
+      <c r="D54" s="87">
+        <v>638</v>
+      </c>
+      <c r="E54" s="63">
+        <v>194743</v>
+      </c>
+      <c r="F54" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="87">
+        <v>81</v>
+      </c>
+      <c r="C55" s="63">
+        <v>3956724</v>
+      </c>
+      <c r="D55" s="87">
+        <v>47</v>
+      </c>
+      <c r="E55" s="63">
+        <v>5491251</v>
+      </c>
+      <c r="F55" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="87">
+        <v>255</v>
+      </c>
+      <c r="C56" s="63">
+        <v>560277</v>
+      </c>
+      <c r="D56" s="87">
+        <v>110</v>
+      </c>
+      <c r="E56" s="63">
+        <v>1030444</v>
+      </c>
+      <c r="F56" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="87">
+        <v>6334</v>
+      </c>
+      <c r="C57" s="63">
+        <v>42027595</v>
+      </c>
+      <c r="D57" s="87">
+        <v>763</v>
+      </c>
+      <c r="E57" s="63">
+        <v>3456228</v>
+      </c>
+      <c r="F57" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="87">
+        <v>479</v>
+      </c>
+      <c r="C58" s="63">
+        <v>20635450</v>
+      </c>
+      <c r="D58" s="87">
+        <v>254</v>
+      </c>
+      <c r="E58" s="63">
+        <v>13914388</v>
+      </c>
+      <c r="F58" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" s="87">
+        <v>431</v>
+      </c>
+      <c r="C59" s="63">
+        <v>3586188</v>
+      </c>
+      <c r="D59" s="87">
+        <v>166</v>
+      </c>
+      <c r="E59" s="63">
+        <v>4329269</v>
+      </c>
+      <c r="F59" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="87">
+        <v>105</v>
+      </c>
+      <c r="C60" s="63">
+        <v>115054</v>
+      </c>
+      <c r="D60" s="87">
+        <v>38</v>
+      </c>
+      <c r="E60" s="63">
+        <v>8980</v>
+      </c>
+      <c r="F60" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="87">
+        <v>0</v>
+      </c>
+      <c r="C61" s="63">
+        <v>0</v>
+      </c>
+      <c r="D61" s="87">
+        <v>0</v>
+      </c>
+      <c r="E61" s="63">
+        <v>0</v>
+      </c>
+      <c r="F61" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="87">
+        <v>13856</v>
+      </c>
+      <c r="C62" s="63">
+        <v>0</v>
+      </c>
+      <c r="D62" s="87">
+        <v>6269</v>
+      </c>
+      <c r="E62" s="63">
+        <v>0</v>
+      </c>
+      <c r="F62" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="B63" s="87">
+        <v>7742</v>
+      </c>
+      <c r="C63" s="63">
+        <v>27055269</v>
+      </c>
+      <c r="D63" s="87">
+        <v>4649</v>
+      </c>
+      <c r="E63" s="63">
+        <v>28977538</v>
+      </c>
+      <c r="F63" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="87">
+        <v>643</v>
+      </c>
+      <c r="C64" s="63">
+        <v>2965088</v>
+      </c>
+      <c r="D64" s="87">
+        <v>257</v>
+      </c>
+      <c r="E64" s="63">
+        <v>1653114</v>
+      </c>
+      <c r="F64" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="87">
+        <v>899</v>
+      </c>
+      <c r="C65" s="63">
+        <v>5006807</v>
+      </c>
+      <c r="D65" s="87">
+        <v>493</v>
+      </c>
+      <c r="E65" s="63">
+        <v>2460560</v>
+      </c>
+      <c r="F65" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="87">
+        <v>3862</v>
+      </c>
+      <c r="C66" s="63">
+        <v>12526267</v>
+      </c>
+      <c r="D66" s="87">
+        <v>1411</v>
+      </c>
+      <c r="E66" s="63">
+        <v>2128054</v>
+      </c>
+      <c r="F66" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="87">
+        <v>2001</v>
+      </c>
+      <c r="C67" s="63">
+        <v>2591820</v>
+      </c>
+      <c r="D67" s="87">
+        <v>385</v>
+      </c>
+      <c r="E67" s="63">
+        <v>1185216</v>
+      </c>
+      <c r="F67" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="87">
+        <v>207</v>
+      </c>
+      <c r="C68" s="63">
+        <v>1412759</v>
+      </c>
+      <c r="D68" s="87">
+        <v>9</v>
+      </c>
+      <c r="E68" s="63">
+        <v>13400</v>
+      </c>
+      <c r="F68" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="87">
+        <v>90</v>
+      </c>
+      <c r="C69" s="63">
+        <v>690591</v>
+      </c>
+      <c r="D69" s="87">
+        <v>156</v>
+      </c>
+      <c r="E69" s="63">
+        <v>589616</v>
+      </c>
+      <c r="F69" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="87">
+        <v>1129</v>
+      </c>
+      <c r="C70" s="63">
+        <v>29867798</v>
+      </c>
+      <c r="D70" s="87">
+        <v>485</v>
+      </c>
+      <c r="E70" s="63">
+        <v>6825166</v>
+      </c>
+      <c r="F70" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" s="87">
+        <v>2003</v>
+      </c>
+      <c r="C71" s="63">
+        <v>8688119</v>
+      </c>
+      <c r="D71" s="87">
+        <v>958</v>
+      </c>
+      <c r="E71" s="63">
+        <v>2221092</v>
+      </c>
+      <c r="F71" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="87">
+        <v>1292</v>
+      </c>
+      <c r="C72" s="63">
+        <v>10929076</v>
+      </c>
+      <c r="D72" s="87">
+        <v>339</v>
+      </c>
+      <c r="E72" s="63">
+        <v>3491442</v>
+      </c>
+      <c r="F72" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="87">
+        <v>0</v>
+      </c>
+      <c r="C73" s="63">
+        <v>0</v>
+      </c>
+      <c r="D73" s="87">
+        <v>0</v>
+      </c>
+      <c r="E73" s="63">
+        <v>0</v>
+      </c>
+      <c r="F73" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" s="83">
+        <v>804</v>
+      </c>
+      <c r="C74" s="61">
+        <v>3448171</v>
+      </c>
+      <c r="D74" s="83">
+        <v>397</v>
+      </c>
+      <c r="E74" s="61">
+        <v>7226189</v>
+      </c>
+      <c r="F74" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" s="83">
+        <v>1300</v>
+      </c>
+      <c r="C75" s="61">
+        <v>268343363</v>
+      </c>
+      <c r="D75" s="83">
+        <v>266</v>
+      </c>
+      <c r="E75" s="61">
+        <v>23543495</v>
+      </c>
+      <c r="F75" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="83">
+        <v>0</v>
+      </c>
+      <c r="C76" s="61">
+        <v>0</v>
+      </c>
+      <c r="D76" s="83">
+        <v>0</v>
+      </c>
+      <c r="E76" s="61">
+        <v>0</v>
+      </c>
+      <c r="F76" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="83">
+        <v>61</v>
+      </c>
+      <c r="C77" s="61">
+        <v>419975</v>
+      </c>
+      <c r="D77" s="83">
+        <v>33</v>
+      </c>
+      <c r="E77" s="61">
+        <v>176464</v>
+      </c>
+      <c r="F77" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="83">
+        <v>1103</v>
+      </c>
+      <c r="C78" s="61">
+        <v>26286815</v>
+      </c>
+      <c r="D78" s="83">
+        <v>625</v>
+      </c>
+      <c r="E78" s="61">
+        <v>32163741</v>
+      </c>
+      <c r="F78" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="83">
+        <v>184</v>
+      </c>
+      <c r="C79" s="61">
+        <v>17330670</v>
+      </c>
+      <c r="D79" s="83">
+        <v>45</v>
+      </c>
+      <c r="E79" s="61">
+        <v>3265352</v>
+      </c>
+      <c r="F79" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="83">
+        <v>940</v>
+      </c>
+      <c r="C80" s="61">
+        <v>13546478</v>
+      </c>
+      <c r="D80" s="83">
+        <v>511</v>
+      </c>
+      <c r="E80" s="61">
+        <v>5148156</v>
+      </c>
+      <c r="F80" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" s="83">
+        <v>148</v>
+      </c>
+      <c r="C81" s="61">
+        <v>4422</v>
+      </c>
+      <c r="D81" s="83">
+        <v>22</v>
+      </c>
+      <c r="E81" s="61">
+        <v>750</v>
+      </c>
+      <c r="F81" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" s="83">
+        <v>0</v>
+      </c>
+      <c r="C82" s="61">
+        <v>0</v>
+      </c>
+      <c r="D82" s="83">
+        <v>0</v>
+      </c>
+      <c r="E82" s="61">
+        <v>0</v>
+      </c>
+      <c r="F82" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B83" s="83">
+        <v>104</v>
+      </c>
+      <c r="C83" s="61">
+        <v>1198</v>
+      </c>
+      <c r="D83" s="83">
+        <v>27</v>
+      </c>
+      <c r="E83" s="61">
+        <v>0</v>
+      </c>
+      <c r="F83" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="83">
+        <v>952</v>
+      </c>
+      <c r="C84" s="61">
+        <v>4002952</v>
+      </c>
+      <c r="D84" s="83">
+        <v>559</v>
+      </c>
+      <c r="E84" s="61">
+        <v>3245329</v>
+      </c>
+      <c r="F84" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" s="83">
+        <v>3906</v>
+      </c>
+      <c r="C85" s="61">
+        <v>8074599</v>
+      </c>
+      <c r="D85" s="83">
+        <v>400</v>
+      </c>
+      <c r="E85" s="61">
+        <v>1797840</v>
+      </c>
+      <c r="F85" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" s="83">
+        <v>23</v>
+      </c>
+      <c r="C86" s="61">
+        <v>866194</v>
+      </c>
+      <c r="D86" s="83">
+        <v>1</v>
+      </c>
+      <c r="E86" s="61">
+        <v>0</v>
+      </c>
+      <c r="F86" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="83">
+        <v>733</v>
+      </c>
+      <c r="C87" s="61">
+        <v>11765011</v>
+      </c>
+      <c r="D87" s="83">
+        <v>150</v>
+      </c>
+      <c r="E87" s="61">
+        <v>4164127</v>
+      </c>
+      <c r="F87" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" s="83">
+        <v>0</v>
+      </c>
+      <c r="C88" s="61">
+        <v>0</v>
+      </c>
+      <c r="D88" s="83">
+        <v>0</v>
+      </c>
+      <c r="E88" s="61">
+        <v>0</v>
+      </c>
+      <c r="F88" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" s="83">
+        <v>1060</v>
+      </c>
+      <c r="C89" s="61">
+        <v>549421</v>
+      </c>
+      <c r="D89" s="83">
+        <v>493</v>
+      </c>
+      <c r="E89" s="61">
+        <v>152003</v>
+      </c>
+      <c r="F89" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="83">
+        <v>104</v>
+      </c>
+      <c r="C90" s="61">
+        <v>1998102</v>
+      </c>
+      <c r="D90" s="83">
+        <v>27</v>
+      </c>
+      <c r="E90" s="61">
+        <v>1442575</v>
+      </c>
+      <c r="F90" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="83">
+        <v>208</v>
+      </c>
+      <c r="C91" s="61">
+        <v>110798</v>
+      </c>
+      <c r="D91" s="83">
+        <v>83</v>
+      </c>
+      <c r="E91" s="61">
+        <v>120800</v>
+      </c>
+      <c r="F91" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B92" s="83">
+        <v>1576</v>
+      </c>
+      <c r="C92" s="61">
+        <v>15761821</v>
+      </c>
+      <c r="D92" s="83">
+        <v>482</v>
+      </c>
+      <c r="E92" s="61">
+        <v>5464322</v>
+      </c>
+      <c r="F92" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" s="83">
+        <v>462</v>
+      </c>
+      <c r="C93" s="61">
+        <v>20457949</v>
+      </c>
+      <c r="D93" s="83">
+        <v>440</v>
+      </c>
+      <c r="E93" s="61">
+        <v>33428054</v>
+      </c>
+      <c r="F93" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B94" s="83">
+        <v>1387</v>
+      </c>
+      <c r="C94" s="61">
+        <v>4414146</v>
+      </c>
+      <c r="D94" s="83">
+        <v>230</v>
+      </c>
+      <c r="E94" s="61">
+        <v>9024129</v>
+      </c>
+      <c r="F94" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="83">
+        <v>83</v>
+      </c>
+      <c r="C95" s="61">
+        <v>1192574</v>
+      </c>
+      <c r="D95" s="83">
+        <v>16</v>
+      </c>
+      <c r="E95" s="61">
+        <v>23350</v>
+      </c>
+      <c r="F95" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96" s="83">
+        <v>0</v>
+      </c>
+      <c r="C96" s="61">
+        <v>0</v>
+      </c>
+      <c r="D96" s="83">
+        <v>0</v>
+      </c>
+      <c r="E96" s="61">
+        <v>0</v>
+      </c>
+      <c r="F96" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97" s="83">
+        <v>6712</v>
+      </c>
+      <c r="C97" s="61">
+        <v>0</v>
+      </c>
+      <c r="D97" s="83">
+        <v>1146</v>
+      </c>
+      <c r="E97" s="61">
+        <v>0</v>
+      </c>
+      <c r="F97" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" s="83">
+        <v>6372</v>
+      </c>
+      <c r="C98" s="61">
+        <v>16997357</v>
+      </c>
+      <c r="D98" s="83">
+        <v>2149</v>
+      </c>
+      <c r="E98" s="61">
+        <v>10338046</v>
+      </c>
+      <c r="F98" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" s="83">
+        <v>421</v>
+      </c>
+      <c r="C99" s="61">
+        <v>789011</v>
+      </c>
+      <c r="D99" s="83">
+        <v>197</v>
+      </c>
+      <c r="E99" s="61">
+        <v>1500397</v>
+      </c>
+      <c r="F99" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" s="83">
+        <v>573</v>
+      </c>
+      <c r="C100" s="61">
+        <v>3667760</v>
+      </c>
+      <c r="D100" s="83">
+        <v>455</v>
+      </c>
+      <c r="E100" s="61">
+        <v>3657585</v>
+      </c>
+      <c r="F100" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101" s="83">
+        <v>2561</v>
+      </c>
+      <c r="C101" s="61">
+        <v>15366342</v>
+      </c>
+      <c r="D101" s="83">
+        <v>983</v>
+      </c>
+      <c r="E101" s="61">
+        <v>2871189</v>
+      </c>
+      <c r="F101" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B102" s="83">
+        <v>2017</v>
+      </c>
+      <c r="C102" s="61">
+        <v>6025642</v>
+      </c>
+      <c r="D102" s="83">
+        <v>322</v>
+      </c>
+      <c r="E102" s="61">
+        <v>1687373</v>
+      </c>
+      <c r="F102" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B103" s="83">
+        <v>157</v>
+      </c>
+      <c r="C103" s="61">
+        <v>1701872</v>
+      </c>
+      <c r="D103" s="83">
+        <v>10</v>
+      </c>
+      <c r="E103" s="61">
+        <v>46511</v>
+      </c>
+      <c r="F103" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" s="83">
+        <v>28</v>
+      </c>
+      <c r="C104" s="61">
+        <v>209163</v>
+      </c>
+      <c r="D104" s="83">
+        <v>24</v>
+      </c>
+      <c r="E104" s="61">
+        <v>98928</v>
+      </c>
+      <c r="F104" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B105" s="83">
+        <v>870</v>
+      </c>
+      <c r="C105" s="61">
+        <v>14537349</v>
+      </c>
+      <c r="D105" s="83">
+        <v>523</v>
+      </c>
+      <c r="E105" s="61">
+        <v>12284762</v>
+      </c>
+      <c r="F105" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" s="83">
+        <v>1756</v>
+      </c>
+      <c r="C106" s="61">
+        <v>12943467</v>
+      </c>
+      <c r="D106" s="83">
+        <v>326</v>
+      </c>
+      <c r="E106" s="61">
+        <v>4564118</v>
+      </c>
+      <c r="F106" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" s="83">
+        <v>856</v>
+      </c>
+      <c r="C107" s="61">
+        <v>9311400</v>
+      </c>
+      <c r="D107" s="83">
+        <v>244</v>
+      </c>
+      <c r="E107" s="61">
+        <v>3176704</v>
+      </c>
+      <c r="F107" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B108" s="83">
+        <v>0</v>
+      </c>
+      <c r="C108" s="61">
+        <v>0</v>
+      </c>
+      <c r="D108" s="83">
+        <v>0</v>
+      </c>
+      <c r="E108" s="61">
+        <v>0</v>
+      </c>
+      <c r="F108" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" s="83">
+        <v>940</v>
+      </c>
+      <c r="C109" s="61">
+        <v>5393959</v>
+      </c>
+      <c r="D109" s="83">
+        <v>426</v>
+      </c>
+      <c r="E109" s="61">
+        <v>3717975</v>
+      </c>
+      <c r="F109" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="B110" s="83">
+        <v>1662</v>
+      </c>
+      <c r="C110" s="61">
+        <v>136223701</v>
+      </c>
+      <c r="D110" s="83">
+        <v>331</v>
+      </c>
+      <c r="E110" s="61">
+        <v>27194598</v>
+      </c>
+      <c r="F110" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" s="83">
+        <v>0</v>
+      </c>
+      <c r="C111" s="61">
+        <v>0</v>
+      </c>
+      <c r="D111" s="83">
+        <v>0</v>
+      </c>
+      <c r="E111" s="61">
+        <v>0</v>
+      </c>
+      <c r="F111" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112" s="83">
+        <v>65</v>
+      </c>
+      <c r="C112" s="61">
+        <v>301966</v>
+      </c>
+      <c r="D112" s="83">
+        <v>44</v>
+      </c>
+      <c r="E112" s="61">
+        <v>505645</v>
+      </c>
+      <c r="F112" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B113" s="83">
+        <v>1602</v>
+      </c>
+      <c r="C113" s="61">
+        <v>42181951</v>
+      </c>
+      <c r="D113" s="83">
+        <v>1003</v>
+      </c>
+      <c r="E113" s="61">
+        <v>33103729</v>
+      </c>
+      <c r="F113" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" s="83">
+        <v>559</v>
+      </c>
+      <c r="C114" s="61">
+        <v>6785734</v>
+      </c>
+      <c r="D114" s="83">
+        <v>71</v>
+      </c>
+      <c r="E114" s="61">
+        <v>4330996</v>
+      </c>
+      <c r="F114" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" s="83">
+        <v>1198</v>
+      </c>
+      <c r="C115" s="61">
+        <v>37085127</v>
+      </c>
+      <c r="D115" s="83">
+        <v>497</v>
+      </c>
+      <c r="E115" s="61">
+        <v>3727624</v>
+      </c>
+      <c r="F115" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" s="83">
+        <v>245</v>
+      </c>
+      <c r="C116" s="61">
+        <v>48808</v>
+      </c>
+      <c r="D116" s="83">
+        <v>54</v>
+      </c>
+      <c r="E116" s="61">
+        <v>7176</v>
+      </c>
+      <c r="F116" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B117" s="83">
+        <v>0</v>
+      </c>
+      <c r="C117" s="61">
+        <v>0</v>
+      </c>
+      <c r="D117" s="83">
+        <v>0</v>
+      </c>
+      <c r="E117" s="61">
+        <v>0</v>
+      </c>
+      <c r="F117" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B118" s="83">
+        <v>151</v>
+      </c>
+      <c r="C118" s="61">
+        <v>1697</v>
+      </c>
+      <c r="D118" s="83">
+        <v>46</v>
+      </c>
+      <c r="E118" s="61">
+        <v>1864</v>
+      </c>
+      <c r="F118" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B119" s="83">
+        <v>1720</v>
+      </c>
+      <c r="C119" s="61">
+        <v>4509243</v>
+      </c>
+      <c r="D119" s="83">
+        <v>646</v>
+      </c>
+      <c r="E119" s="61">
+        <v>1904699</v>
+      </c>
+      <c r="F119" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" s="83">
+        <v>4891</v>
+      </c>
+      <c r="C120" s="61">
+        <v>6314431</v>
+      </c>
+      <c r="D120" s="83">
+        <v>636</v>
+      </c>
+      <c r="E120" s="61">
+        <v>3137725</v>
+      </c>
+      <c r="F120" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B121" s="83">
+        <v>23</v>
+      </c>
+      <c r="C121" s="61">
+        <v>1349494</v>
+      </c>
+      <c r="D121" s="83">
+        <v>9</v>
+      </c>
+      <c r="E121" s="61">
+        <v>37</v>
+      </c>
+      <c r="F121" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B122" s="83">
+        <v>1170</v>
+      </c>
+      <c r="C122" s="61">
+        <v>6080505</v>
+      </c>
+      <c r="D122" s="83">
+        <v>463</v>
+      </c>
+      <c r="E122" s="61">
+        <v>5599991</v>
+      </c>
+      <c r="F122" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B123" s="83">
+        <v>0</v>
+      </c>
+      <c r="C123" s="61">
+        <v>0</v>
+      </c>
+      <c r="D123" s="83">
+        <v>0</v>
+      </c>
+      <c r="E123" s="61">
+        <v>0</v>
+      </c>
+      <c r="F123" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B124" s="83">
+        <v>1311</v>
+      </c>
+      <c r="C124" s="61">
+        <v>531483</v>
+      </c>
+      <c r="D124" s="83">
+        <v>629</v>
+      </c>
+      <c r="E124" s="61">
+        <v>128175</v>
+      </c>
+      <c r="F124" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B125" s="83">
+        <v>68</v>
+      </c>
+      <c r="C125" s="61">
+        <v>1665912</v>
+      </c>
+      <c r="D125" s="83">
+        <v>17</v>
+      </c>
+      <c r="E125" s="61">
+        <v>506995</v>
+      </c>
+      <c r="F125" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" s="83">
+        <v>225</v>
+      </c>
+      <c r="C126" s="61">
+        <v>752120</v>
+      </c>
+      <c r="D126" s="83">
+        <v>83</v>
+      </c>
+      <c r="E126" s="61">
+        <v>238687</v>
+      </c>
+      <c r="F126" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B127" s="83">
+        <v>1773</v>
+      </c>
+      <c r="C127" s="61">
+        <v>16647823</v>
+      </c>
+      <c r="D127" s="83">
+        <v>579</v>
+      </c>
+      <c r="E127" s="61">
+        <v>2969224</v>
+      </c>
+      <c r="F127" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B128" s="83">
+        <v>489</v>
+      </c>
+      <c r="C128" s="61">
+        <v>27612852</v>
+      </c>
+      <c r="D128" s="83">
+        <v>288</v>
+      </c>
+      <c r="E128" s="61">
+        <v>9467242</v>
+      </c>
+      <c r="F128" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B129" s="83">
+        <v>536</v>
+      </c>
+      <c r="C129" s="61">
+        <v>4510082</v>
+      </c>
+      <c r="D129" s="83">
+        <v>154</v>
+      </c>
+      <c r="E129" s="61">
+        <v>5773372</v>
+      </c>
+      <c r="F129" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B130" s="83">
+        <v>92</v>
+      </c>
+      <c r="C130" s="61">
+        <v>286608</v>
+      </c>
+      <c r="D130" s="83">
+        <v>19</v>
+      </c>
+      <c r="E130" s="61">
+        <v>2050</v>
+      </c>
+      <c r="F130" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B131" s="83">
+        <v>0</v>
+      </c>
+      <c r="C131" s="61">
+        <v>0</v>
+      </c>
+      <c r="D131" s="83">
+        <v>0</v>
+      </c>
+      <c r="E131" s="61">
+        <v>0</v>
+      </c>
+      <c r="F131" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B132" s="83">
+        <v>3859</v>
+      </c>
+      <c r="C132" s="61">
+        <v>0</v>
+      </c>
+      <c r="D132" s="83">
+        <v>1557</v>
+      </c>
+      <c r="E132" s="61">
+        <v>0</v>
+      </c>
+      <c r="F132" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B133" s="83">
+        <v>7893</v>
+      </c>
+      <c r="C133" s="61">
+        <v>15309037</v>
+      </c>
+      <c r="D133" s="83">
+        <v>3352</v>
+      </c>
+      <c r="E133" s="61">
+        <v>17279610</v>
+      </c>
+      <c r="F133" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B134" s="83">
+        <v>524</v>
+      </c>
+      <c r="C134" s="61">
+        <v>2927425</v>
+      </c>
+      <c r="D134" s="83">
+        <v>196</v>
+      </c>
+      <c r="E134" s="61">
+        <v>8371129</v>
+      </c>
+      <c r="F134" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B135" s="83">
+        <v>890</v>
+      </c>
+      <c r="C135" s="61">
+        <v>3500380</v>
+      </c>
+      <c r="D135" s="83">
+        <v>486</v>
+      </c>
+      <c r="E135" s="61">
+        <v>2232886</v>
+      </c>
+      <c r="F135" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B136" s="83">
+        <v>3394</v>
+      </c>
+      <c r="C136" s="61">
+        <v>37720530</v>
+      </c>
+      <c r="D136" s="83">
+        <v>1126</v>
+      </c>
+      <c r="E136" s="61">
+        <v>966645</v>
+      </c>
+      <c r="F136" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B137" s="83">
+        <v>1802</v>
+      </c>
+      <c r="C137" s="61">
+        <v>2347331</v>
+      </c>
+      <c r="D137" s="83">
+        <v>378</v>
+      </c>
+      <c r="E137" s="61">
+        <v>1962860</v>
+      </c>
+      <c r="F137" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B138" s="83">
+        <v>219</v>
+      </c>
+      <c r="C138" s="61">
+        <v>547154</v>
+      </c>
+      <c r="D138" s="83">
+        <v>15</v>
+      </c>
+      <c r="E138" s="61">
+        <v>19000</v>
+      </c>
+      <c r="F138" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B139" s="83">
+        <v>101</v>
+      </c>
+      <c r="C139" s="61">
+        <v>222100</v>
+      </c>
+      <c r="D139" s="83">
+        <v>17</v>
+      </c>
+      <c r="E139" s="61">
+        <v>728275</v>
+      </c>
+      <c r="F139" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B140" s="83">
+        <v>975</v>
+      </c>
+      <c r="C140" s="61">
+        <v>23085237</v>
+      </c>
+      <c r="D140" s="83">
+        <v>430</v>
+      </c>
+      <c r="E140" s="61">
+        <v>7920576</v>
+      </c>
+      <c r="F140" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B141" s="83">
+        <v>1921</v>
+      </c>
+      <c r="C141" s="61">
+        <v>24790138</v>
+      </c>
+      <c r="D141" s="83">
+        <v>503</v>
+      </c>
+      <c r="E141" s="61">
+        <v>3550796</v>
+      </c>
+      <c r="F141" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B142" s="83">
+        <v>1081</v>
+      </c>
+      <c r="C142" s="61">
+        <v>12194868</v>
+      </c>
+      <c r="D142" s="83">
+        <v>245</v>
+      </c>
+      <c r="E142" s="61">
+        <v>4548309</v>
+      </c>
+      <c r="F142" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B143" s="83">
+        <v>0</v>
+      </c>
+      <c r="C143" s="61">
+        <v>0</v>
+      </c>
+      <c r="D143" s="83">
+        <v>0</v>
+      </c>
+      <c r="E143" s="61">
+        <v>0</v>
+      </c>
+      <c r="F143" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A126A827-C9B2-4662-92D2-298F301FD03D}">
   <dimension ref="A1:E38"/>
@@ -5899,7 +6744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359C8EF3-AE3E-44F0-BFFD-415195860D69}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -6143,8 +6988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FE8E8B-615F-4333-BF4D-FCD1EC4452CD}">
   <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9086,11 +9931,337 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35352629-4D38-4D21-8D38-7B881E7CFAE7}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="90">
+        <v>60000000</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="90">
+        <v>977411</v>
+      </c>
+      <c r="B3">
+        <v>2020</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="90">
+        <v>2000000</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="C4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="90">
+        <v>7000000</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="90">
+        <v>190000</v>
+      </c>
+      <c r="B6">
+        <v>2019</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="90">
+        <v>866000</v>
+      </c>
+      <c r="B7">
+        <v>2019</v>
+      </c>
+      <c r="C7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="90">
+        <v>138000</v>
+      </c>
+      <c r="B8">
+        <v>2019</v>
+      </c>
+      <c r="C8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="90">
+        <v>3000000</v>
+      </c>
+      <c r="B9">
+        <v>2019</v>
+      </c>
+      <c r="C9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="90">
+        <v>50000</v>
+      </c>
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="90">
+        <v>54000</v>
+      </c>
+      <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="90">
+        <v>1000000</v>
+      </c>
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="C12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="90">
+        <v>50000</v>
+      </c>
+      <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="90">
+        <v>388000</v>
+      </c>
+      <c r="B14">
+        <v>2018</v>
+      </c>
+      <c r="C14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="90">
+        <v>200000</v>
+      </c>
+      <c r="B15">
+        <v>2017</v>
+      </c>
+      <c r="C15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="90">
+        <v>25000</v>
+      </c>
+      <c r="B16">
+        <v>2017</v>
+      </c>
+      <c r="C16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="90">
+        <v>232258</v>
+      </c>
+      <c r="B17">
+        <v>2016</v>
+      </c>
+      <c r="C17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="90">
+        <v>279277</v>
+      </c>
+      <c r="B18">
+        <v>2016</v>
+      </c>
+      <c r="C18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039AACE4-1938-40C3-AB46-7F3027F394C1}">
   <dimension ref="A1:E58"/>
   <sheetViews>
@@ -9929,7 +11100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE921963-30F6-45F5-B7F8-7C95D6071C85}">
   <dimension ref="A1:E59"/>
   <sheetViews>
@@ -10774,7 +11945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826F90C3-9618-49E5-AF17-038A7306728D}">
   <dimension ref="A1:J26"/>
   <sheetViews>
@@ -11151,2862 +12322,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D09582-0870-4074-A122-F0CE63C18E4B}">
-  <dimension ref="A1:F143"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="58"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="86">
-        <v>1497</v>
-      </c>
-      <c r="C2" s="60">
-        <v>19531058</v>
-      </c>
-      <c r="D2" s="83">
-        <v>778</v>
-      </c>
-      <c r="E2" s="61">
-        <v>8991086</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="86">
-        <v>2924</v>
-      </c>
-      <c r="C3" s="60">
-        <v>219121752</v>
-      </c>
-      <c r="D3" s="83">
-        <v>428</v>
-      </c>
-      <c r="E3" s="61">
-        <v>31866447</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="86">
-        <v>0</v>
-      </c>
-      <c r="C4" s="60">
-        <v>0</v>
-      </c>
-      <c r="D4" s="83">
-        <v>0</v>
-      </c>
-      <c r="E4" s="61">
-        <v>0</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="86">
-        <v>137</v>
-      </c>
-      <c r="C5" s="60">
-        <v>11916688</v>
-      </c>
-      <c r="D5" s="83">
-        <v>107</v>
-      </c>
-      <c r="E5" s="61">
-        <v>6536458</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="86">
-        <v>3110</v>
-      </c>
-      <c r="C6" s="60">
-        <v>120492182</v>
-      </c>
-      <c r="D6" s="83">
-        <v>1384</v>
-      </c>
-      <c r="E6" s="61">
-        <v>69686021</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="86">
-        <v>367</v>
-      </c>
-      <c r="C7" s="60">
-        <v>26713249</v>
-      </c>
-      <c r="D7" s="83">
-        <v>96</v>
-      </c>
-      <c r="E7" s="61">
-        <v>5226532</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="86">
-        <v>2637</v>
-      </c>
-      <c r="C8" s="60">
-        <v>15484731</v>
-      </c>
-      <c r="D8" s="83">
-        <v>1128</v>
-      </c>
-      <c r="E8" s="61">
-        <v>9640764</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="86">
-        <v>408</v>
-      </c>
-      <c r="C9" s="60">
-        <v>434348</v>
-      </c>
-      <c r="D9" s="83">
-        <v>85</v>
-      </c>
-      <c r="E9" s="61">
-        <v>11989</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="86">
-        <v>0</v>
-      </c>
-      <c r="C10" s="60">
-        <v>0</v>
-      </c>
-      <c r="D10" s="83">
-        <v>0</v>
-      </c>
-      <c r="E10" s="61">
-        <v>0</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" s="86">
-        <v>205</v>
-      </c>
-      <c r="C11" s="60">
-        <v>83304</v>
-      </c>
-      <c r="D11" s="83">
-        <v>83</v>
-      </c>
-      <c r="E11" s="61">
-        <v>2458</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="86">
-        <v>2355</v>
-      </c>
-      <c r="C12" s="60">
-        <v>12826945</v>
-      </c>
-      <c r="D12" s="83">
-        <v>1067</v>
-      </c>
-      <c r="E12" s="61">
-        <v>7805888</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="86">
-        <v>11089</v>
-      </c>
-      <c r="C13" s="60">
-        <v>16283934</v>
-      </c>
-      <c r="D13" s="83">
-        <v>1154</v>
-      </c>
-      <c r="E13" s="61">
-        <v>3408726</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="86">
-        <v>51</v>
-      </c>
-      <c r="C14" s="60">
-        <v>335167</v>
-      </c>
-      <c r="D14" s="83">
-        <v>18</v>
-      </c>
-      <c r="E14" s="61">
-        <v>677</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="86">
-        <v>1439</v>
-      </c>
-      <c r="C15" s="60">
-        <v>28344200</v>
-      </c>
-      <c r="D15" s="83">
-        <v>296</v>
-      </c>
-      <c r="E15" s="61">
-        <v>3835156</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="86">
-        <v>0</v>
-      </c>
-      <c r="C16" s="60">
-        <v>0</v>
-      </c>
-      <c r="D16" s="83">
-        <v>0</v>
-      </c>
-      <c r="E16" s="61">
-        <v>0</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="86">
-        <v>2923</v>
-      </c>
-      <c r="C17" s="60">
-        <v>1182816</v>
-      </c>
-      <c r="D17" s="83">
-        <v>1291</v>
-      </c>
-      <c r="E17" s="61">
-        <v>849931</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="86">
-        <v>153</v>
-      </c>
-      <c r="C18" s="60">
-        <v>2161635</v>
-      </c>
-      <c r="D18" s="83">
-        <v>82</v>
-      </c>
-      <c r="E18" s="61">
-        <v>1970201</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="86">
-        <v>501</v>
-      </c>
-      <c r="C19" s="60">
-        <v>1669155</v>
-      </c>
-      <c r="D19" s="83">
-        <v>226</v>
-      </c>
-      <c r="E19" s="61">
-        <v>1560816</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="86">
-        <v>3370</v>
-      </c>
-      <c r="C20" s="60">
-        <v>23011137</v>
-      </c>
-      <c r="D20" s="83">
-        <v>1112</v>
-      </c>
-      <c r="E20" s="61">
-        <v>9552167</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="86">
-        <v>1026</v>
-      </c>
-      <c r="C21" s="60">
-        <v>65674226</v>
-      </c>
-      <c r="D21" s="83">
-        <v>762</v>
-      </c>
-      <c r="E21" s="61">
-        <v>36608176</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="B22" s="86">
-        <v>725</v>
-      </c>
-      <c r="C22" s="60">
-        <v>13169635</v>
-      </c>
-      <c r="D22" s="83">
-        <v>225</v>
-      </c>
-      <c r="E22" s="61">
-        <v>6481705</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="86">
-        <v>185</v>
-      </c>
-      <c r="C23" s="60">
-        <v>1645813</v>
-      </c>
-      <c r="D23" s="83">
-        <v>73</v>
-      </c>
-      <c r="E23" s="61">
-        <v>43863</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="86">
-        <v>0</v>
-      </c>
-      <c r="C24" s="60">
-        <v>0</v>
-      </c>
-      <c r="D24" s="83">
-        <v>0</v>
-      </c>
-      <c r="E24" s="61">
-        <v>0</v>
-      </c>
-      <c r="F24" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="86">
-        <v>5692</v>
-      </c>
-      <c r="C25" s="60">
-        <v>0</v>
-      </c>
-      <c r="D25" s="83">
-        <v>3293</v>
-      </c>
-      <c r="E25" s="61">
-        <v>0</v>
-      </c>
-      <c r="F25" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="B26" s="86">
-        <v>13151</v>
-      </c>
-      <c r="C26" s="60">
-        <v>26912115</v>
-      </c>
-      <c r="D26" s="83">
-        <v>6358</v>
-      </c>
-      <c r="E26" s="61">
-        <v>19874738</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="86">
-        <v>1147</v>
-      </c>
-      <c r="C27" s="60">
-        <v>12314110</v>
-      </c>
-      <c r="D27" s="83">
-        <v>1607</v>
-      </c>
-      <c r="E27" s="61">
-        <v>6679784</v>
-      </c>
-      <c r="F27" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="86">
-        <v>1532</v>
-      </c>
-      <c r="C28" s="60">
-        <v>8602104</v>
-      </c>
-      <c r="D28" s="83">
-        <v>654</v>
-      </c>
-      <c r="E28" s="61">
-        <v>3296636</v>
-      </c>
-      <c r="F28" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="86">
-        <v>6372</v>
-      </c>
-      <c r="C29" s="60">
-        <v>23133897</v>
-      </c>
-      <c r="D29" s="83">
-        <v>2480</v>
-      </c>
-      <c r="E29" s="61">
-        <v>8417839</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="86">
-        <v>3302</v>
-      </c>
-      <c r="C30" s="60">
-        <v>8864419</v>
-      </c>
-      <c r="D30" s="83">
-        <v>774</v>
-      </c>
-      <c r="E30" s="61">
-        <v>2366193</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="86">
-        <v>323</v>
-      </c>
-      <c r="C31" s="60">
-        <v>1123833</v>
-      </c>
-      <c r="D31" s="83">
-        <v>23</v>
-      </c>
-      <c r="E31" s="61">
-        <v>3364</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="86">
-        <v>125</v>
-      </c>
-      <c r="C32" s="60">
-        <v>828544</v>
-      </c>
-      <c r="D32" s="83">
-        <v>86</v>
-      </c>
-      <c r="E32" s="61">
-        <v>459094</v>
-      </c>
-      <c r="F32" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="86">
-        <v>2493</v>
-      </c>
-      <c r="C33" s="60">
-        <v>34381477</v>
-      </c>
-      <c r="D33" s="83">
-        <v>1017</v>
-      </c>
-      <c r="E33" s="61">
-        <v>15458352</v>
-      </c>
-      <c r="F33" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" s="86">
-        <v>3204</v>
-      </c>
-      <c r="C34" s="60">
-        <v>33552417</v>
-      </c>
-      <c r="D34" s="83">
-        <v>972</v>
-      </c>
-      <c r="E34" s="61">
-        <v>13355303</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="86">
-        <v>2164</v>
-      </c>
-      <c r="C35" s="60">
-        <v>25355911</v>
-      </c>
-      <c r="D35" s="83">
-        <v>967</v>
-      </c>
-      <c r="E35" s="61">
-        <v>13821124</v>
-      </c>
-      <c r="F35" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="86">
-        <v>0</v>
-      </c>
-      <c r="C36" s="60">
-        <v>0</v>
-      </c>
-      <c r="D36" s="83">
-        <v>0</v>
-      </c>
-      <c r="E36" s="61">
-        <v>0</v>
-      </c>
-      <c r="F36" s="58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="61"/>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="61"/>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="87">
-        <v>930</v>
-      </c>
-      <c r="C39" s="63">
-        <v>3296149</v>
-      </c>
-      <c r="D39" s="87">
-        <v>510</v>
-      </c>
-      <c r="E39" s="63">
-        <v>3118451</v>
-      </c>
-      <c r="F39" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="B40" s="87">
-        <v>1381</v>
-      </c>
-      <c r="C40" s="63">
-        <v>115001364</v>
-      </c>
-      <c r="D40" s="87">
-        <v>269</v>
-      </c>
-      <c r="E40" s="63">
-        <v>21257260</v>
-      </c>
-      <c r="F40" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="87">
-        <v>0</v>
-      </c>
-      <c r="C41" s="63">
-        <v>0</v>
-      </c>
-      <c r="D41" s="87">
-        <v>0</v>
-      </c>
-      <c r="E41" s="63">
-        <v>0</v>
-      </c>
-      <c r="F41" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="87">
-        <v>105</v>
-      </c>
-      <c r="C42" s="63">
-        <v>781952</v>
-      </c>
-      <c r="D42" s="87">
-        <v>121</v>
-      </c>
-      <c r="E42" s="63">
-        <v>2111545</v>
-      </c>
-      <c r="F42" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="87">
-        <v>1603</v>
-      </c>
-      <c r="C43" s="63">
-        <v>40173934</v>
-      </c>
-      <c r="D43" s="87">
-        <v>678</v>
-      </c>
-      <c r="E43" s="63">
-        <v>29426282</v>
-      </c>
-      <c r="F43" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="87">
-        <v>189</v>
-      </c>
-      <c r="C44" s="63">
-        <v>8310707</v>
-      </c>
-      <c r="D44" s="87">
-        <v>58</v>
-      </c>
-      <c r="E44" s="63">
-        <v>4673897</v>
-      </c>
-      <c r="F44" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="87">
-        <v>1650</v>
-      </c>
-      <c r="C45" s="63">
-        <v>7212126</v>
-      </c>
-      <c r="D45" s="87">
-        <v>720</v>
-      </c>
-      <c r="E45" s="63">
-        <v>2435570</v>
-      </c>
-      <c r="F45" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="87">
-        <v>193</v>
-      </c>
-      <c r="C46" s="63">
-        <v>15007</v>
-      </c>
-      <c r="D46" s="87">
-        <v>33</v>
-      </c>
-      <c r="E46" s="63">
-        <v>10627</v>
-      </c>
-      <c r="F46" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="87">
-        <v>0</v>
-      </c>
-      <c r="C47" s="63">
-        <v>0</v>
-      </c>
-      <c r="D47" s="87">
-        <v>0</v>
-      </c>
-      <c r="E47" s="63">
-        <v>0</v>
-      </c>
-      <c r="F47" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="B48" s="87">
-        <v>159</v>
-      </c>
-      <c r="C48" s="63">
-        <v>6454</v>
-      </c>
-      <c r="D48" s="87">
-        <v>48</v>
-      </c>
-      <c r="E48" s="63">
-        <v>830</v>
-      </c>
-      <c r="F48" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="87">
-        <v>1508</v>
-      </c>
-      <c r="C49" s="63">
-        <v>6457617</v>
-      </c>
-      <c r="D49" s="87">
-        <v>623</v>
-      </c>
-      <c r="E49" s="63">
-        <v>4646009</v>
-      </c>
-      <c r="F49" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="87">
-        <v>5079</v>
-      </c>
-      <c r="C50" s="63">
-        <v>4016115</v>
-      </c>
-      <c r="D50" s="87">
-        <v>527</v>
-      </c>
-      <c r="E50" s="63">
-        <v>2592687</v>
-      </c>
-      <c r="F50" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="87">
-        <v>20</v>
-      </c>
-      <c r="C51" s="63">
-        <v>225173</v>
-      </c>
-      <c r="D51" s="87">
-        <v>8</v>
-      </c>
-      <c r="E51" s="63">
-        <v>203600</v>
-      </c>
-      <c r="F51" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="87">
-        <v>963</v>
-      </c>
-      <c r="C52" s="63">
-        <v>5379106</v>
-      </c>
-      <c r="D52" s="87">
-        <v>184</v>
-      </c>
-      <c r="E52" s="63">
-        <v>1522885</v>
-      </c>
-      <c r="F52" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="87">
-        <v>0</v>
-      </c>
-      <c r="C53" s="63">
-        <v>0</v>
-      </c>
-      <c r="D53" s="87">
-        <v>0</v>
-      </c>
-      <c r="E53" s="63">
-        <v>0</v>
-      </c>
-      <c r="F53" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="87">
-        <v>1566</v>
-      </c>
-      <c r="C54" s="63">
-        <v>308820</v>
-      </c>
-      <c r="D54" s="87">
-        <v>638</v>
-      </c>
-      <c r="E54" s="63">
-        <v>194743</v>
-      </c>
-      <c r="F54" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="87">
-        <v>81</v>
-      </c>
-      <c r="C55" s="63">
-        <v>3956724</v>
-      </c>
-      <c r="D55" s="87">
-        <v>47</v>
-      </c>
-      <c r="E55" s="63">
-        <v>5491251</v>
-      </c>
-      <c r="F55" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" s="87">
-        <v>255</v>
-      </c>
-      <c r="C56" s="63">
-        <v>560277</v>
-      </c>
-      <c r="D56" s="87">
-        <v>110</v>
-      </c>
-      <c r="E56" s="63">
-        <v>1030444</v>
-      </c>
-      <c r="F56" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="87">
-        <v>6334</v>
-      </c>
-      <c r="C57" s="63">
-        <v>42027595</v>
-      </c>
-      <c r="D57" s="87">
-        <v>763</v>
-      </c>
-      <c r="E57" s="63">
-        <v>3456228</v>
-      </c>
-      <c r="F57" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="87">
-        <v>479</v>
-      </c>
-      <c r="C58" s="63">
-        <v>20635450</v>
-      </c>
-      <c r="D58" s="87">
-        <v>254</v>
-      </c>
-      <c r="E58" s="63">
-        <v>13914388</v>
-      </c>
-      <c r="F58" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="B59" s="87">
-        <v>431</v>
-      </c>
-      <c r="C59" s="63">
-        <v>3586188</v>
-      </c>
-      <c r="D59" s="87">
-        <v>166</v>
-      </c>
-      <c r="E59" s="63">
-        <v>4329269</v>
-      </c>
-      <c r="F59" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="87">
-        <v>105</v>
-      </c>
-      <c r="C60" s="63">
-        <v>115054</v>
-      </c>
-      <c r="D60" s="87">
-        <v>38</v>
-      </c>
-      <c r="E60" s="63">
-        <v>8980</v>
-      </c>
-      <c r="F60" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="87">
-        <v>0</v>
-      </c>
-      <c r="C61" s="63">
-        <v>0</v>
-      </c>
-      <c r="D61" s="87">
-        <v>0</v>
-      </c>
-      <c r="E61" s="63">
-        <v>0</v>
-      </c>
-      <c r="F61" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="87">
-        <v>13856</v>
-      </c>
-      <c r="C62" s="63">
-        <v>0</v>
-      </c>
-      <c r="D62" s="87">
-        <v>6269</v>
-      </c>
-      <c r="E62" s="63">
-        <v>0</v>
-      </c>
-      <c r="F62" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="B63" s="87">
-        <v>7742</v>
-      </c>
-      <c r="C63" s="63">
-        <v>27055269</v>
-      </c>
-      <c r="D63" s="87">
-        <v>4649</v>
-      </c>
-      <c r="E63" s="63">
-        <v>28977538</v>
-      </c>
-      <c r="F63" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="87">
-        <v>643</v>
-      </c>
-      <c r="C64" s="63">
-        <v>2965088</v>
-      </c>
-      <c r="D64" s="87">
-        <v>257</v>
-      </c>
-      <c r="E64" s="63">
-        <v>1653114</v>
-      </c>
-      <c r="F64" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="87">
-        <v>899</v>
-      </c>
-      <c r="C65" s="63">
-        <v>5006807</v>
-      </c>
-      <c r="D65" s="87">
-        <v>493</v>
-      </c>
-      <c r="E65" s="63">
-        <v>2460560</v>
-      </c>
-      <c r="F65" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="87">
-        <v>3862</v>
-      </c>
-      <c r="C66" s="63">
-        <v>12526267</v>
-      </c>
-      <c r="D66" s="87">
-        <v>1411</v>
-      </c>
-      <c r="E66" s="63">
-        <v>2128054</v>
-      </c>
-      <c r="F66" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="87">
-        <v>2001</v>
-      </c>
-      <c r="C67" s="63">
-        <v>2591820</v>
-      </c>
-      <c r="D67" s="87">
-        <v>385</v>
-      </c>
-      <c r="E67" s="63">
-        <v>1185216</v>
-      </c>
-      <c r="F67" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="87">
-        <v>207</v>
-      </c>
-      <c r="C68" s="63">
-        <v>1412759</v>
-      </c>
-      <c r="D68" s="87">
-        <v>9</v>
-      </c>
-      <c r="E68" s="63">
-        <v>13400</v>
-      </c>
-      <c r="F68" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="B69" s="87">
-        <v>90</v>
-      </c>
-      <c r="C69" s="63">
-        <v>690591</v>
-      </c>
-      <c r="D69" s="87">
-        <v>156</v>
-      </c>
-      <c r="E69" s="63">
-        <v>589616</v>
-      </c>
-      <c r="F69" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="87">
-        <v>1129</v>
-      </c>
-      <c r="C70" s="63">
-        <v>29867798</v>
-      </c>
-      <c r="D70" s="87">
-        <v>485</v>
-      </c>
-      <c r="E70" s="63">
-        <v>6825166</v>
-      </c>
-      <c r="F70" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="B71" s="87">
-        <v>2003</v>
-      </c>
-      <c r="C71" s="63">
-        <v>8688119</v>
-      </c>
-      <c r="D71" s="87">
-        <v>958</v>
-      </c>
-      <c r="E71" s="63">
-        <v>2221092</v>
-      </c>
-      <c r="F71" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="87">
-        <v>1292</v>
-      </c>
-      <c r="C72" s="63">
-        <v>10929076</v>
-      </c>
-      <c r="D72" s="87">
-        <v>339</v>
-      </c>
-      <c r="E72" s="63">
-        <v>3491442</v>
-      </c>
-      <c r="F72" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" s="87">
-        <v>0</v>
-      </c>
-      <c r="C73" s="63">
-        <v>0</v>
-      </c>
-      <c r="D73" s="87">
-        <v>0</v>
-      </c>
-      <c r="E73" s="63">
-        <v>0</v>
-      </c>
-      <c r="F73" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B74" s="83">
-        <v>804</v>
-      </c>
-      <c r="C74" s="61">
-        <v>3448171</v>
-      </c>
-      <c r="D74" s="83">
-        <v>397</v>
-      </c>
-      <c r="E74" s="61">
-        <v>7226189</v>
-      </c>
-      <c r="F74" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75" s="83">
-        <v>1300</v>
-      </c>
-      <c r="C75" s="61">
-        <v>268343363</v>
-      </c>
-      <c r="D75" s="83">
-        <v>266</v>
-      </c>
-      <c r="E75" s="61">
-        <v>23543495</v>
-      </c>
-      <c r="F75" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" s="83">
-        <v>0</v>
-      </c>
-      <c r="C76" s="61">
-        <v>0</v>
-      </c>
-      <c r="D76" s="83">
-        <v>0</v>
-      </c>
-      <c r="E76" s="61">
-        <v>0</v>
-      </c>
-      <c r="F76" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B77" s="83">
-        <v>61</v>
-      </c>
-      <c r="C77" s="61">
-        <v>419975</v>
-      </c>
-      <c r="D77" s="83">
-        <v>33</v>
-      </c>
-      <c r="E77" s="61">
-        <v>176464</v>
-      </c>
-      <c r="F77" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B78" s="83">
-        <v>1103</v>
-      </c>
-      <c r="C78" s="61">
-        <v>26286815</v>
-      </c>
-      <c r="D78" s="83">
-        <v>625</v>
-      </c>
-      <c r="E78" s="61">
-        <v>32163741</v>
-      </c>
-      <c r="F78" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B79" s="83">
-        <v>184</v>
-      </c>
-      <c r="C79" s="61">
-        <v>17330670</v>
-      </c>
-      <c r="D79" s="83">
-        <v>45</v>
-      </c>
-      <c r="E79" s="61">
-        <v>3265352</v>
-      </c>
-      <c r="F79" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B80" s="83">
-        <v>940</v>
-      </c>
-      <c r="C80" s="61">
-        <v>13546478</v>
-      </c>
-      <c r="D80" s="83">
-        <v>511</v>
-      </c>
-      <c r="E80" s="61">
-        <v>5148156</v>
-      </c>
-      <c r="F80" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B81" s="83">
-        <v>148</v>
-      </c>
-      <c r="C81" s="61">
-        <v>4422</v>
-      </c>
-      <c r="D81" s="83">
-        <v>22</v>
-      </c>
-      <c r="E81" s="61">
-        <v>750</v>
-      </c>
-      <c r="F81" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B82" s="83">
-        <v>0</v>
-      </c>
-      <c r="C82" s="61">
-        <v>0</v>
-      </c>
-      <c r="D82" s="83">
-        <v>0</v>
-      </c>
-      <c r="E82" s="61">
-        <v>0</v>
-      </c>
-      <c r="F82" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="B83" s="83">
-        <v>104</v>
-      </c>
-      <c r="C83" s="61">
-        <v>1198</v>
-      </c>
-      <c r="D83" s="83">
-        <v>27</v>
-      </c>
-      <c r="E83" s="61">
-        <v>0</v>
-      </c>
-      <c r="F83" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B84" s="83">
-        <v>952</v>
-      </c>
-      <c r="C84" s="61">
-        <v>4002952</v>
-      </c>
-      <c r="D84" s="83">
-        <v>559</v>
-      </c>
-      <c r="E84" s="61">
-        <v>3245329</v>
-      </c>
-      <c r="F84" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B85" s="83">
-        <v>3906</v>
-      </c>
-      <c r="C85" s="61">
-        <v>8074599</v>
-      </c>
-      <c r="D85" s="83">
-        <v>400</v>
-      </c>
-      <c r="E85" s="61">
-        <v>1797840</v>
-      </c>
-      <c r="F85" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B86" s="83">
-        <v>23</v>
-      </c>
-      <c r="C86" s="61">
-        <v>866194</v>
-      </c>
-      <c r="D86" s="83">
-        <v>1</v>
-      </c>
-      <c r="E86" s="61">
-        <v>0</v>
-      </c>
-      <c r="F86" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B87" s="83">
-        <v>733</v>
-      </c>
-      <c r="C87" s="61">
-        <v>11765011</v>
-      </c>
-      <c r="D87" s="83">
-        <v>150</v>
-      </c>
-      <c r="E87" s="61">
-        <v>4164127</v>
-      </c>
-      <c r="F87" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B88" s="83">
-        <v>0</v>
-      </c>
-      <c r="C88" s="61">
-        <v>0</v>
-      </c>
-      <c r="D88" s="83">
-        <v>0</v>
-      </c>
-      <c r="E88" s="61">
-        <v>0</v>
-      </c>
-      <c r="F88" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B89" s="83">
-        <v>1060</v>
-      </c>
-      <c r="C89" s="61">
-        <v>549421</v>
-      </c>
-      <c r="D89" s="83">
-        <v>493</v>
-      </c>
-      <c r="E89" s="61">
-        <v>152003</v>
-      </c>
-      <c r="F89" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B90" s="83">
-        <v>104</v>
-      </c>
-      <c r="C90" s="61">
-        <v>1998102</v>
-      </c>
-      <c r="D90" s="83">
-        <v>27</v>
-      </c>
-      <c r="E90" s="61">
-        <v>1442575</v>
-      </c>
-      <c r="F90" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" s="83">
-        <v>208</v>
-      </c>
-      <c r="C91" s="61">
-        <v>110798</v>
-      </c>
-      <c r="D91" s="83">
-        <v>83</v>
-      </c>
-      <c r="E91" s="61">
-        <v>120800</v>
-      </c>
-      <c r="F91" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B92" s="83">
-        <v>1576</v>
-      </c>
-      <c r="C92" s="61">
-        <v>15761821</v>
-      </c>
-      <c r="D92" s="83">
-        <v>482</v>
-      </c>
-      <c r="E92" s="61">
-        <v>5464322</v>
-      </c>
-      <c r="F92" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B93" s="83">
-        <v>462</v>
-      </c>
-      <c r="C93" s="61">
-        <v>20457949</v>
-      </c>
-      <c r="D93" s="83">
-        <v>440</v>
-      </c>
-      <c r="E93" s="61">
-        <v>33428054</v>
-      </c>
-      <c r="F93" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="B94" s="83">
-        <v>1387</v>
-      </c>
-      <c r="C94" s="61">
-        <v>4414146</v>
-      </c>
-      <c r="D94" s="83">
-        <v>230</v>
-      </c>
-      <c r="E94" s="61">
-        <v>9024129</v>
-      </c>
-      <c r="F94" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B95" s="83">
-        <v>83</v>
-      </c>
-      <c r="C95" s="61">
-        <v>1192574</v>
-      </c>
-      <c r="D95" s="83">
-        <v>16</v>
-      </c>
-      <c r="E95" s="61">
-        <v>23350</v>
-      </c>
-      <c r="F95" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B96" s="83">
-        <v>0</v>
-      </c>
-      <c r="C96" s="61">
-        <v>0</v>
-      </c>
-      <c r="D96" s="83">
-        <v>0</v>
-      </c>
-      <c r="E96" s="61">
-        <v>0</v>
-      </c>
-      <c r="F96" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B97" s="83">
-        <v>6712</v>
-      </c>
-      <c r="C97" s="61">
-        <v>0</v>
-      </c>
-      <c r="D97" s="83">
-        <v>1146</v>
-      </c>
-      <c r="E97" s="61">
-        <v>0</v>
-      </c>
-      <c r="F97" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="B98" s="83">
-        <v>6372</v>
-      </c>
-      <c r="C98" s="61">
-        <v>16997357</v>
-      </c>
-      <c r="D98" s="83">
-        <v>2149</v>
-      </c>
-      <c r="E98" s="61">
-        <v>10338046</v>
-      </c>
-      <c r="F98" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B99" s="83">
-        <v>421</v>
-      </c>
-      <c r="C99" s="61">
-        <v>789011</v>
-      </c>
-      <c r="D99" s="83">
-        <v>197</v>
-      </c>
-      <c r="E99" s="61">
-        <v>1500397</v>
-      </c>
-      <c r="F99" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B100" s="83">
-        <v>573</v>
-      </c>
-      <c r="C100" s="61">
-        <v>3667760</v>
-      </c>
-      <c r="D100" s="83">
-        <v>455</v>
-      </c>
-      <c r="E100" s="61">
-        <v>3657585</v>
-      </c>
-      <c r="F100" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B101" s="83">
-        <v>2561</v>
-      </c>
-      <c r="C101" s="61">
-        <v>15366342</v>
-      </c>
-      <c r="D101" s="83">
-        <v>983</v>
-      </c>
-      <c r="E101" s="61">
-        <v>2871189</v>
-      </c>
-      <c r="F101" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B102" s="83">
-        <v>2017</v>
-      </c>
-      <c r="C102" s="61">
-        <v>6025642</v>
-      </c>
-      <c r="D102" s="83">
-        <v>322</v>
-      </c>
-      <c r="E102" s="61">
-        <v>1687373</v>
-      </c>
-      <c r="F102" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B103" s="83">
-        <v>157</v>
-      </c>
-      <c r="C103" s="61">
-        <v>1701872</v>
-      </c>
-      <c r="D103" s="83">
-        <v>10</v>
-      </c>
-      <c r="E103" s="61">
-        <v>46511</v>
-      </c>
-      <c r="F103" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B104" s="83">
-        <v>28</v>
-      </c>
-      <c r="C104" s="61">
-        <v>209163</v>
-      </c>
-      <c r="D104" s="83">
-        <v>24</v>
-      </c>
-      <c r="E104" s="61">
-        <v>98928</v>
-      </c>
-      <c r="F104" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B105" s="83">
-        <v>870</v>
-      </c>
-      <c r="C105" s="61">
-        <v>14537349</v>
-      </c>
-      <c r="D105" s="83">
-        <v>523</v>
-      </c>
-      <c r="E105" s="61">
-        <v>12284762</v>
-      </c>
-      <c r="F105" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="B106" s="83">
-        <v>1756</v>
-      </c>
-      <c r="C106" s="61">
-        <v>12943467</v>
-      </c>
-      <c r="D106" s="83">
-        <v>326</v>
-      </c>
-      <c r="E106" s="61">
-        <v>4564118</v>
-      </c>
-      <c r="F106" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B107" s="83">
-        <v>856</v>
-      </c>
-      <c r="C107" s="61">
-        <v>9311400</v>
-      </c>
-      <c r="D107" s="83">
-        <v>244</v>
-      </c>
-      <c r="E107" s="61">
-        <v>3176704</v>
-      </c>
-      <c r="F107" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B108" s="83">
-        <v>0</v>
-      </c>
-      <c r="C108" s="61">
-        <v>0</v>
-      </c>
-      <c r="D108" s="83">
-        <v>0</v>
-      </c>
-      <c r="E108" s="61">
-        <v>0</v>
-      </c>
-      <c r="F108" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B109" s="83">
-        <v>940</v>
-      </c>
-      <c r="C109" s="61">
-        <v>5393959</v>
-      </c>
-      <c r="D109" s="83">
-        <v>426</v>
-      </c>
-      <c r="E109" s="61">
-        <v>3717975</v>
-      </c>
-      <c r="F109" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="B110" s="83">
-        <v>1662</v>
-      </c>
-      <c r="C110" s="61">
-        <v>136223701</v>
-      </c>
-      <c r="D110" s="83">
-        <v>331</v>
-      </c>
-      <c r="E110" s="61">
-        <v>27194598</v>
-      </c>
-      <c r="F110" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B111" s="83">
-        <v>0</v>
-      </c>
-      <c r="C111" s="61">
-        <v>0</v>
-      </c>
-      <c r="D111" s="83">
-        <v>0</v>
-      </c>
-      <c r="E111" s="61">
-        <v>0</v>
-      </c>
-      <c r="F111" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B112" s="83">
-        <v>65</v>
-      </c>
-      <c r="C112" s="61">
-        <v>301966</v>
-      </c>
-      <c r="D112" s="83">
-        <v>44</v>
-      </c>
-      <c r="E112" s="61">
-        <v>505645</v>
-      </c>
-      <c r="F112" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B113" s="83">
-        <v>1602</v>
-      </c>
-      <c r="C113" s="61">
-        <v>42181951</v>
-      </c>
-      <c r="D113" s="83">
-        <v>1003</v>
-      </c>
-      <c r="E113" s="61">
-        <v>33103729</v>
-      </c>
-      <c r="F113" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B114" s="83">
-        <v>559</v>
-      </c>
-      <c r="C114" s="61">
-        <v>6785734</v>
-      </c>
-      <c r="D114" s="83">
-        <v>71</v>
-      </c>
-      <c r="E114" s="61">
-        <v>4330996</v>
-      </c>
-      <c r="F114" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B115" s="83">
-        <v>1198</v>
-      </c>
-      <c r="C115" s="61">
-        <v>37085127</v>
-      </c>
-      <c r="D115" s="83">
-        <v>497</v>
-      </c>
-      <c r="E115" s="61">
-        <v>3727624</v>
-      </c>
-      <c r="F115" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B116" s="83">
-        <v>245</v>
-      </c>
-      <c r="C116" s="61">
-        <v>48808</v>
-      </c>
-      <c r="D116" s="83">
-        <v>54</v>
-      </c>
-      <c r="E116" s="61">
-        <v>7176</v>
-      </c>
-      <c r="F116" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B117" s="83">
-        <v>0</v>
-      </c>
-      <c r="C117" s="61">
-        <v>0</v>
-      </c>
-      <c r="D117" s="83">
-        <v>0</v>
-      </c>
-      <c r="E117" s="61">
-        <v>0</v>
-      </c>
-      <c r="F117" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="B118" s="83">
-        <v>151</v>
-      </c>
-      <c r="C118" s="61">
-        <v>1697</v>
-      </c>
-      <c r="D118" s="83">
-        <v>46</v>
-      </c>
-      <c r="E118" s="61">
-        <v>1864</v>
-      </c>
-      <c r="F118" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B119" s="83">
-        <v>1720</v>
-      </c>
-      <c r="C119" s="61">
-        <v>4509243</v>
-      </c>
-      <c r="D119" s="83">
-        <v>646</v>
-      </c>
-      <c r="E119" s="61">
-        <v>1904699</v>
-      </c>
-      <c r="F119" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B120" s="83">
-        <v>4891</v>
-      </c>
-      <c r="C120" s="61">
-        <v>6314431</v>
-      </c>
-      <c r="D120" s="83">
-        <v>636</v>
-      </c>
-      <c r="E120" s="61">
-        <v>3137725</v>
-      </c>
-      <c r="F120" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B121" s="83">
-        <v>23</v>
-      </c>
-      <c r="C121" s="61">
-        <v>1349494</v>
-      </c>
-      <c r="D121" s="83">
-        <v>9</v>
-      </c>
-      <c r="E121" s="61">
-        <v>37</v>
-      </c>
-      <c r="F121" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B122" s="83">
-        <v>1170</v>
-      </c>
-      <c r="C122" s="61">
-        <v>6080505</v>
-      </c>
-      <c r="D122" s="83">
-        <v>463</v>
-      </c>
-      <c r="E122" s="61">
-        <v>5599991</v>
-      </c>
-      <c r="F122" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B123" s="83">
-        <v>0</v>
-      </c>
-      <c r="C123" s="61">
-        <v>0</v>
-      </c>
-      <c r="D123" s="83">
-        <v>0</v>
-      </c>
-      <c r="E123" s="61">
-        <v>0</v>
-      </c>
-      <c r="F123" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B124" s="83">
-        <v>1311</v>
-      </c>
-      <c r="C124" s="61">
-        <v>531483</v>
-      </c>
-      <c r="D124" s="83">
-        <v>629</v>
-      </c>
-      <c r="E124" s="61">
-        <v>128175</v>
-      </c>
-      <c r="F124" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B125" s="83">
-        <v>68</v>
-      </c>
-      <c r="C125" s="61">
-        <v>1665912</v>
-      </c>
-      <c r="D125" s="83">
-        <v>17</v>
-      </c>
-      <c r="E125" s="61">
-        <v>506995</v>
-      </c>
-      <c r="F125" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B126" s="83">
-        <v>225</v>
-      </c>
-      <c r="C126" s="61">
-        <v>752120</v>
-      </c>
-      <c r="D126" s="83">
-        <v>83</v>
-      </c>
-      <c r="E126" s="61">
-        <v>238687</v>
-      </c>
-      <c r="F126" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B127" s="83">
-        <v>1773</v>
-      </c>
-      <c r="C127" s="61">
-        <v>16647823</v>
-      </c>
-      <c r="D127" s="83">
-        <v>579</v>
-      </c>
-      <c r="E127" s="61">
-        <v>2969224</v>
-      </c>
-      <c r="F127" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B128" s="83">
-        <v>489</v>
-      </c>
-      <c r="C128" s="61">
-        <v>27612852</v>
-      </c>
-      <c r="D128" s="83">
-        <v>288</v>
-      </c>
-      <c r="E128" s="61">
-        <v>9467242</v>
-      </c>
-      <c r="F128" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="B129" s="83">
-        <v>536</v>
-      </c>
-      <c r="C129" s="61">
-        <v>4510082</v>
-      </c>
-      <c r="D129" s="83">
-        <v>154</v>
-      </c>
-      <c r="E129" s="61">
-        <v>5773372</v>
-      </c>
-      <c r="F129" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B130" s="83">
-        <v>92</v>
-      </c>
-      <c r="C130" s="61">
-        <v>286608</v>
-      </c>
-      <c r="D130" s="83">
-        <v>19</v>
-      </c>
-      <c r="E130" s="61">
-        <v>2050</v>
-      </c>
-      <c r="F130" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B131" s="83">
-        <v>0</v>
-      </c>
-      <c r="C131" s="61">
-        <v>0</v>
-      </c>
-      <c r="D131" s="83">
-        <v>0</v>
-      </c>
-      <c r="E131" s="61">
-        <v>0</v>
-      </c>
-      <c r="F131" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B132" s="83">
-        <v>3859</v>
-      </c>
-      <c r="C132" s="61">
-        <v>0</v>
-      </c>
-      <c r="D132" s="83">
-        <v>1557</v>
-      </c>
-      <c r="E132" s="61">
-        <v>0</v>
-      </c>
-      <c r="F132" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="B133" s="83">
-        <v>7893</v>
-      </c>
-      <c r="C133" s="61">
-        <v>15309037</v>
-      </c>
-      <c r="D133" s="83">
-        <v>3352</v>
-      </c>
-      <c r="E133" s="61">
-        <v>17279610</v>
-      </c>
-      <c r="F133" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B134" s="83">
-        <v>524</v>
-      </c>
-      <c r="C134" s="61">
-        <v>2927425</v>
-      </c>
-      <c r="D134" s="83">
-        <v>196</v>
-      </c>
-      <c r="E134" s="61">
-        <v>8371129</v>
-      </c>
-      <c r="F134" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B135" s="83">
-        <v>890</v>
-      </c>
-      <c r="C135" s="61">
-        <v>3500380</v>
-      </c>
-      <c r="D135" s="83">
-        <v>486</v>
-      </c>
-      <c r="E135" s="61">
-        <v>2232886</v>
-      </c>
-      <c r="F135" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B136" s="83">
-        <v>3394</v>
-      </c>
-      <c r="C136" s="61">
-        <v>37720530</v>
-      </c>
-      <c r="D136" s="83">
-        <v>1126</v>
-      </c>
-      <c r="E136" s="61">
-        <v>966645</v>
-      </c>
-      <c r="F136" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B137" s="83">
-        <v>1802</v>
-      </c>
-      <c r="C137" s="61">
-        <v>2347331</v>
-      </c>
-      <c r="D137" s="83">
-        <v>378</v>
-      </c>
-      <c r="E137" s="61">
-        <v>1962860</v>
-      </c>
-      <c r="F137" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B138" s="83">
-        <v>219</v>
-      </c>
-      <c r="C138" s="61">
-        <v>547154</v>
-      </c>
-      <c r="D138" s="83">
-        <v>15</v>
-      </c>
-      <c r="E138" s="61">
-        <v>19000</v>
-      </c>
-      <c r="F138" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B139" s="83">
-        <v>101</v>
-      </c>
-      <c r="C139" s="61">
-        <v>222100</v>
-      </c>
-      <c r="D139" s="83">
-        <v>17</v>
-      </c>
-      <c r="E139" s="61">
-        <v>728275</v>
-      </c>
-      <c r="F139" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B140" s="83">
-        <v>975</v>
-      </c>
-      <c r="C140" s="61">
-        <v>23085237</v>
-      </c>
-      <c r="D140" s="83">
-        <v>430</v>
-      </c>
-      <c r="E140" s="61">
-        <v>7920576</v>
-      </c>
-      <c r="F140" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="B141" s="83">
-        <v>1921</v>
-      </c>
-      <c r="C141" s="61">
-        <v>24790138</v>
-      </c>
-      <c r="D141" s="83">
-        <v>503</v>
-      </c>
-      <c r="E141" s="61">
-        <v>3550796</v>
-      </c>
-      <c r="F141" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B142" s="83">
-        <v>1081</v>
-      </c>
-      <c r="C142" s="61">
-        <v>12194868</v>
-      </c>
-      <c r="D142" s="83">
-        <v>245</v>
-      </c>
-      <c r="E142" s="61">
-        <v>4548309</v>
-      </c>
-      <c r="F142" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B143" s="83">
-        <v>0</v>
-      </c>
-      <c r="C143" s="61">
-        <v>0</v>
-      </c>
-      <c r="D143" s="83">
-        <v>0</v>
-      </c>
-      <c r="E143" s="61">
-        <v>0</v>
-      </c>
-      <c r="F143" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/cyber_crimes_overall.xlsx
+++ b/data/cyber_crimes_overall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\NSS\Capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC9FC59-3ADD-4297-B9CA-3C4CCB1CBA01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B162B06D-9458-4669-A850-7A3220FCE7A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="678" firstSheet="1" activeTab="5" xr2:uid="{83D2063E-A951-4D1F-B1AA-BA3437BDD47B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="678" firstSheet="1" activeTab="5" xr2:uid="{83D2063E-A951-4D1F-B1AA-BA3437BDD47B}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="7" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="250">
   <si>
     <t>Age Range</t>
   </si>
@@ -976,9 +976,6 @@
     <t>amout</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
     <t>descriptor</t>
   </si>
   <si>
@@ -1028,6 +1025,9 @@
   </si>
   <si>
     <t>social media</t>
+  </si>
+  <si>
+    <t>city</t>
   </si>
 </sst>
 </file>
@@ -9936,21 +9936,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35352629-4D38-4D21-8D38-7B881E7CFAE7}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="90" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
         <v>231</v>
       </c>
@@ -9958,16 +9959,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" t="s">
         <v>232</v>
       </c>
-      <c r="D1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="90">
         <v>60000000</v>
       </c>
@@ -9975,16 +9979,19 @@
         <v>2020</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="90">
         <v>977411</v>
       </c>
@@ -9992,16 +9999,19 @@
         <v>2020</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="90">
         <v>2000000</v>
       </c>
@@ -10009,16 +10019,19 @@
         <v>2020</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E4" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="90">
         <v>7000000</v>
       </c>
@@ -10026,16 +10039,19 @@
         <v>2020</v>
       </c>
       <c r="C5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" t="s">
         <v>239</v>
       </c>
-      <c r="D5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" s="37" t="s">
+      <c r="F5" s="37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="90">
         <v>190000</v>
       </c>
@@ -10043,16 +10059,19 @@
         <v>2019</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E6" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="90">
         <v>866000</v>
       </c>
@@ -10060,16 +10079,19 @@
         <v>2019</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E7" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="90">
         <v>138000</v>
       </c>
@@ -10077,16 +10099,19 @@
         <v>2019</v>
       </c>
       <c r="C8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E8" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="90">
         <v>3000000</v>
       </c>
@@ -10094,16 +10119,19 @@
         <v>2019</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
-      </c>
-      <c r="E9" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="90">
         <v>50000</v>
       </c>
@@ -10114,13 +10142,16 @@
         <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E10" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="90">
         <v>54000</v>
       </c>
@@ -10128,16 +10159,19 @@
         <v>2018</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
-      </c>
-      <c r="E11" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="90">
         <v>1000000</v>
       </c>
@@ -10145,16 +10179,19 @@
         <v>2018</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E12" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" s="37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="90">
         <v>50000</v>
       </c>
@@ -10165,13 +10202,16 @@
         <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="90">
         <v>388000</v>
       </c>
@@ -10179,16 +10219,19 @@
         <v>2018</v>
       </c>
       <c r="C14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D14" t="s">
-        <v>237</v>
-      </c>
-      <c r="E14" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="90">
         <v>200000</v>
       </c>
@@ -10196,16 +10239,19 @@
         <v>2017</v>
       </c>
       <c r="C15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="90">
         <v>25000</v>
       </c>
@@ -10213,16 +10259,19 @@
         <v>2017</v>
       </c>
       <c r="C16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" t="s">
         <v>248</v>
       </c>
-      <c r="D16" t="s">
-        <v>249</v>
-      </c>
-      <c r="E16" s="37" t="s">
+      <c r="F16" s="37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="90">
         <v>232258</v>
       </c>
@@ -10230,16 +10279,19 @@
         <v>2016</v>
       </c>
       <c r="C17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
-      </c>
-      <c r="E17" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="90">
         <v>279277</v>
       </c>
@@ -10247,12 +10299,15 @@
         <v>2016</v>
       </c>
       <c r="C18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E18" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F18" s="37" t="s">
         <v>90</v>
       </c>
     </row>
